--- a/dados_reels_remama.xlsx
+++ b/dados_reels_remama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,4945 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>June 22, 2019</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>"Os benefícios físicos e psicológicos que o Programa Remama tem proporcionado, alcançam aqueles que não fogem da Raia!!!
+ 😜🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️ 
+Repost de @governosp
+O #ProjetoRemama muda a vida de pacientes que estão passando pelo tratamento de #câncer de mama. 
+A #atividade física, sentimento de pertencimento e #autoestima fazem total diferença no sistema imunológico das pacientes ❤ Conheça:
+#icesp #institutodocancerdoestadodesp 
+#programaremama
+#raiaolimpicadausp #usp
+#cepeusp #redelucy 
+#eusoulucy #aedrehc #sepcd #governosp
+#vida #saude #saudavel #gratidao #alegria #havidaaposocancer
+#remadorasrosasdesp
+#remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>April 21, 2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>"É daqui a pouco.
+Clique no link da bio ou do stories.
+Digite a senha 816686"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>August 16, 2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>"#Repost @laura_olivera_sala 
+——
+En el marco de las celebraciones por el Día de la Inmigración China en Brasil, se realizó en el Campo Olímpico de la USP la primera edición del Día del Bote del Dragón, la tradicional carrera de botes con cabezas de dragón que compiten en el río a gran velocidad. Reportaje para @cgtnenespanol 
+Agradecemos a menção e o lindo registro! @laura_olivera_sala
+@ibrachinaoficial
+@cbcspoficial
+@dragonumaumabrasil
+@remamadragaorosa
+@canomama_time
+@ninarosadragonboat"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>August 13, 2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Remama Dragão Rosa Oficial no Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>April 16, 2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>"Momentos preciosos, que vão para muito além da atividade física.
+Compartilhamos saúde, sentimentos e vida!
+Um grupo de apoio sobre as águas!
+Quem um dia poderia supor que faria parte disso!?
+Gratidão pelas segundas chances e pelos amigos que nos são presenteados pelo caminho🤗💕🚣🏻‍♀️❤️
+🚣🏻‍♀️
+🪷
+🚣🏻‍♀️
+🪷
+🚣🏻‍♀️
+*O áudio falando três barcos, por conta do Dragonboat Day, no evento da @ibrachinaoficial , no ano passado."</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>October 4, 2017</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>"🎉🎉🎉Dia mais que festivo para o Remama 🎉🎉🎉 #Repost from @institutodocancersp with @regram.app ... Chegou a hora! 😀 
+Acompanhe com a gente as pacientes do Projeto #Remama recebendo um barco dragão na Raia Olímpica da USP. Elas já estão no aquecimento e super animadas para cair na água! 🚣🏻‍♀️💦
+Acompanhe aqui na nossa página, em tempo real, como será a sensação dessa primeira remada. 
+Esta ação faz parte do movimento #ÉPraFrenteQueSeRema, no rumo da prevenção, e dá início ao #OutubroRosa no Icesp. 🌺🌷🌸 #programaremama #cancerdemama  #dragonboatbrasil #remama #remadorasrosasdobrasil #ibcpc #donmckenzie #remamadragaorosa #remadorasrosasdesp #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc #prevencaodelinfedema #esporteevida #linfedema  #alegria #gratidao #breastsurvivor #sptv #eprafrentequeserema #raiaolimpicadausp  #alegria  #dragonboatbrasil #selvaventura #programaremama #breastsurvivor"</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>November 7, 2018</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>"Repost do registro sensível realizado pela @i9criacoes360. Muitas guerreiras e guerreiros, com muita vida e emoção!  Lindo trabalho realizado para o ICESP - Instituto do Câncer do Estado de SP, onde contribuímos com um grande evento da Instituição para o Outubro Rosa. Registramos momentos emocionantes onde as Pacientes ser tornaram modelos lindas, radiantes e poderosas em um desfile feito especialmente para elas com a ajuda da Faculdade Sta. Marcelina que envolveu os alunos do Curso de Moda. Pelos nossos olhos e experiência. Preparamos e planejamos o Vídeo Institucional da Ação que ocorre anualmente que ficará guardado para sempre na Memória e nos coração destas mulheres poderosas.
+#i9criacoes #outubrorosa #icesp #SP #publicidadeepropaganda
+#santamarcelinaedu 
+#havidaaposocancer 
+#eprafrentequeserema #programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp  #remadorasrosasdobrasil #saudesp #governodesp #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>October 14, 2022</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>"#Repost @valeriabaracatt
+Utilidade pública: reconstituição de Aréola para mulheres mastectomizadas devido ao câncer de mama! 🙏💖
+.
+.
+Outubro Rosa não é para celebrar nada! Informe sobre prevenção, mas ajude as pacientes, que precisam reconstruir a Aréola! Sem esse procedimento realizado pela expert em micropigmentação @anaceliamicropigmentacao nenhuma mulher se sente completa. Estenda a mão à uma paciente de câncer de mama compartilhando a informação desse vídeo! 🙏💖
+.
+A @clinicaoppermann fará consultas com ginecologista e ultrassom das mamas. 🙏💖
+.
+.
+Será um dia de trabalho para os especialistas, totalmente gratuito, mas com muito amor! 🙏💖
+.
+.
+#gratidao #deus #solidariedade #voluntariado #amoraoproximo #sustentabilidade #cancerdemama  #micropigmentacao #saude #autoestima #outubrorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>December 19, 2022</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>"Há vida após o câncer!
+🙏🚣🏻‍♀️💕🌹
+#havidaaposocancer 
+#remamadragaorosa 
+#exercicioeremedio
+#eprafrentequeserema 
+#boasfestas"</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>118</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>May 23, 2023</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Campita Fotografia no Instagram: "Testemunhar a potência dessas mulheres e capturar a essência da superação foi um presente que jamais esquecerei 💕Que essas imagens possam inspirar todos a enfrentar seus desafios de peito aberto e a celebrar a vida em sua total plenitude. 
+Sou muito grata por ter vivenciado a experiência e ter partilhado desta energia surreal ao fotografar pessoas tão especiais. O carinho e doação de todo o grupo gerou uma conexão que transcende os cliques...
+Aproveito para agradecer o projeto Remama e todas as Guerreiras do Dragão Rosa por confiarem em meu trabalho e proporcionarem essa vivência única. Voltarei em breve para visitá-las e reabastecer as energias 🚣🏼‍♀️
+Ah! Saibam que o projeto @remamadragaorosa está com vagas abertas para aquelas interessadas em remar, independentemente da experiência. Basta entrar em contato com a equipe e apresentar um comprovante do câncer de mama enfrentado. Vale a pena conhecer e participar dessa comunidade onde a sororidade e a superação se unem em cada remada🎗️
+#projetoremama #cancerdemama #cancer #remama #remar"</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>82</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>May 7, 2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>"Nossas saudades e sentimentos para a querida e amável Filó, que nos deixou tão precocemente. 
+Companheira divertida, que nos conquistou com sua singeleza, carinho e alegria. 
+Nosso abraço à família querida.
+🌺🚣🏻‍♀️🌺🚣🏻‍♀️🌺🚣🏻‍♀️🌺🚣🏻‍♀️🌺🚣🏻‍♀️🌺🚣🏻‍♀️🌺
+ #saudadeseternas
+ #familiaremama 
+#remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>October 3, 2020</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>"Dia especial, de recordarmos o dia da entrega do nosso Barco Dragão!
+Vale sempre a repostagem de momentos inesquecíveis!
+A data é 03 de Outubro de 2017:
+São muitas emoções vividas e compartilhadas.
+O Dragon Boat é a embarcação oficial das sobreviventes de câncer de mama e o Brasil conta hoje com equipes em São Paulo, Brasília, Alagoas, Paraná, Santos, Sergipe!
+Os estudos do médico canadense Dr. Don Mckenzie com o movimento da remada trouxeram nova luz para a reabilitação das mulheres mastectomizadas.
+Daí vem a  inspiração  para a criação do Programa Remama, que desde 2013 atende mulheres que passaram por tratamento no Instituto do Câncer do Estado de São Paulo - ICESP, direcionadas pelo SUS, em parceria com a USP e a Rede Lucy Montoro.
+Temos uma estrutura de apoio e acompanhamento exemplares e diante disto, não podemos deixar de expressar nossa gratidão pelo empenho e compromisso de todos que participam e fazem com que o Programa Remama exista e se mantenha.
+É muito bom poder compartilhar dos benefícios que este esporte proporciona, das amizades geradas, da cumplicidade de ter passado pelo mesmo momento.
+Poder dizer que há vida após o câncer e trazer esperança é igualmente  motivador.
+Gratidão pela vida, pelos novos horizontes desenhados com qualidade de vida!
+Obrigada AEDREHC por proporcionar este momento único!
+#icesp #cepeusp #eefeusp #redelucy #eusoulucy #aedrehc #programaremama #remamadragaorosa #remadorasrosasdesp
+#remadorasrosasdobrasil #outubrorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>October 15, 2021</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>"E complementando nosso Setembro, temos aqui as queridas Prof. @_julieamaral e a remadora Nice @valdenicebiassi , abrindo o coração! 
+.
+.
+.
+❤❤❤❤❤❤❤❤❤❤❤
+#Diamundialdocoracao 
+#worldheartday
+#remama 
+#remamaon
+#remamadragaorosa
+#havidaaposocancer 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>April 27, 2020</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>"#Repost @342artes: A @casacinepoa, com o apoio do 342 Artes, produziu um clipe musical para lembrar da importância do isolamento social e da arrecadação de fundos para a realização de mais testes durante a pandemia de covid-19.
+.
+“Canto do Povo de Um Lugar” Canção de @caetanoveloso, montagem de @jonatasrubert, gravação base de @maunader, mixagem de @kikoferrazz e locução de @fernandamontenegrooficial.
+.
+Seja solidário. Fique em casa e colabore! 🤲🏽❤️
+.
+Acesse os links dos stories para fazer sua doação.
+.
+↘️RIO GRANDE DO SUL
+Doações para o laboratório de testes de coronavírus do ICBS, Instituto de Ciências Básicas da Saúde da UFRGS
+.
+↘️RIO DE JANEIRO
+Doações para o Laboratório de Virologia Molecular do Instituto de Biologia da UFRJ
+.
+↘️SÃO PAULO
+Doações para o programa USP Vida, pesquisas de ações diagnósticas para a covid-19, da USP
+.
+#342Artes #CasaCinePOA #MaisTestes #FiqueEmCasa #usp #programauspvida #uspvida #euapoioapesquisa #pesquisa #solidariedade #combateaocoronavirus #remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>June 1, 2023</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>"O dia começou friozinho, mas não impediu o Dragão de passear!
+🐲🌹🐲🌹🐲🌹🐲🌹🐲🌹🐲🌹
+Viva a vida!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>February 4, 2021</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>"Neste dia tão importante para conscientização e combate ao câncer,  a Profa. Patricia Brum nos deixa um recado valioso"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>October 10, 2023</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>"#Repost @gfaria_sp 
+——
+gfaria_sp
+ Meu querido conterrâneo Guimarães Rosa já dizia: " Viver é um rasgar-se e remendar-se.""</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>March 25, 2021</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>"#Repost de @lauratestamd 
+Precisamos da sua ajuda!
+A situação que estamos vivendo é um pesadelo inimaginável.
+Compartilhe este vídeo para que alcance o máximo de pessoas possíveis.
+Se cuidem. Cuidem dos seus amores. Cuidemos uns dos outros. 
+@hospitalhcfmusp @institutodocancersp @canceleacovid"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>October 20, 2020</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>"Nossas remadoras maravilhosas, Juana e Luzia, continuam a dar o recado preventivo, vejam:
+#Repost de @governosp:
+🚣‍♀️🎉🚣‍♀️🎉🚣‍♀️🔝🔝🔝🌸
+🚺 O @institutodocancersp é referência no #tratamento do câncer de mama. Dê o ▶️ e confira os #depoimentos de pacientes e médico do hospital.
+🩺 Em tempo: faça o auto #exame das mamas. Quanto antes for feito o diagnóstico, maior a chance do tratamento dar certo.
+✅ Saiba + www.saude.sp.gov.br 
+#Saude
+#cancerdemama
+#outubrorosa
+#OutubroRosa
+#prevencaodocancerdemama 
+#havidaaposocancer 
+#remama 
+#remamadragaorosa
+@institutodocancersp
+@cepeuspoficial
+@EEFEUSP
+@Rede lucy
+@aedrehc
+@luzroberto 
+@juanamart030"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>October 9, 2023</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>"#Repost @vivi.attis 
+——
+Uma batida,
+Um ritmo,
+Um barco,
+Um coração...
+🩷🩷🩷🩷🩷🩷🩷🩷
+REMADORAS ROSAS
+.
+Gratidão Deus por me permitir viver esses momentos 🙏🏻❣️
+.
+@remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>October 17, 2020</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>"#Repost do registro que foi ao ar agora à pouco!
+ 🎤🎧👯‍♀️🖤 Estamos no ar, na @radiobandnewsfm. Sábados às 14 e domingos às 11! #repost @radiobandnewsfm
+・・・
+BANDNEWS EM FORMA!
+Pacientes em tratamento contra o câncer de mama relatam os benefícios da atividade física para restabelecer a rotina e reorganizar a vida.
+A gastrônoma Denise Reis Chagas (@denisereischagas) e a enfermeira Ana Macedo (@anampasserine) integram o grupo Remama (@remamadragaorosa), ligado ao Instituto do Câncer de São Paulo (@institutodocancersp) e falam sobre as vantagens do treino e do encontro com outras mulheres na mesma situação.
+Larissa Simões (@larissasimoesfisioterapeuta), fisioterapeuta especializada em oncologia do A.C. Camargo Cancer Center (@accamargocancercenter), explica o que acontece no corpo da mulher no momento em que ela recebe o diagnóstico do tumor e detalha a importância da movimentação orientada.
+E a Alessandra Rodrigues (@alerodriguespereira), atleta profissional de canoagem velocidade, conta como virou treinadora do UMAAUMA (@dragonumaumabrasil), grupo de remo de mulheres sobreviventes, depois do diagnóstico da mãe, de 77 anos, a remadora mais velha da turma.
+Informação e incentivo com as apresentadoras Renata Veneri (@rveneri) e Camila Hirsch (@camila_hirsch).
+#outubrorosa 
+#havidaaposocancer 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>October 15, 2020</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>"A remadora Solange Paixão diz com todas as letras que a vida dela melhorou muito depois do câncer de mama. Uma força incrível a fé encarar a doença de frente. Conheça a história dessa guerreira.
+#outubrorosa
+#prevencaodocancerdemama
+#eprafrentequeserema 
+#havidaaposocancer
+#remama
+#remamadragaorosa
+@institutodocancersp 
+@cepeuspoficial
+@eefeusp 
+@redelucymontoro  @Aedrehc
+@hospitalhcfmusp 
+@fisiatriasp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>May 14, 2023</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>"Você é força, é beleza e é amor.
+🌹Feliz Dia das Mães 💝
+Remama deseja um feliz dia à todas as mamães 🥰🎉
+#felizdiadasmaes"</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>83</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>April 4, 2021</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>"Feliz Páscoa! 
+#felizpascoa
+#happyeaster 
+#pasqua 
+#havidaaposocancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>May 26, 2022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>"Café da manhã com sabor de comemoração ☕🫖🎉🎉🎉
+#programaremama
+#9anos"</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>53</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>May 28, 2023</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>"PROGRAMA REMAMA 10 ANOS 
+Promovendo a  manutenção da saúde e vida com muita alegria!
+#remama
+#remamaon
+#oncofitt
+#hávidaapósocâncer 
+#cancertemcura 
+#eprafrentequeserema 
+#cancerdemama 
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>April 2, 2021</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>"🌺Nós apoiamos estas mulheres que fazem a diferença! 🔬📚💉🌺
+#Repost de @depouniversitario
+ Na USP existem projeto
+s incríveis liderados por mulheres! 🙋‍♀️
+Arrasta pro lado para conhecer alguns deles
+Estimular o ingresso de meninas na universidade pública e seu envolvimento em iniciativas desse tipo é acreditar num futuro mais justo, desenvolvido e inovador!
+Você conhece alguma menina que estuda ou pensa em entrar na USP?
+Marca aqui nos comentários 💬
+Também agradecemos o @caefe.usp @cejocausp @cepusprp por nos ajudar na busca pelos projetos!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>November 3, 2022</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>"O ideal são 150 minutos de atividade física moderada distribuídos na maior parte dos dias da semana. 
+https://jornal.usp.br/radio-usp/estudo-europeu-confirma-importancia-da-atividade-fisica-na-prevencao-do-cancer-de-mama/
+#outubrorosa 
+#havidaaposocancer 
+#cancerdemama 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>49</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>September 24, 2021</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>"Momentos felizes com nossa Luzia"</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>41</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>October 4, 2017</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>"#Repost from @geraldoalckmin_ with @regram.app ... Neste início de #outubrorosa, ganhamos mais um aliado na luta contra o câncer de mama. O Barco Dragão reunirá uma equipe vencedora de mulheres em recuperação. A novidade faz parte e amplia as vagas do programa REMAMA, parceria do @institutodocancersp , @redelucy e o Centro de Práticas Esportivas da USP @cepeuspoficial que incentiva a prática do remo como aliado do sistema imunológico, ajudando na luta contra o câncer.
+#ÉPraFrenteQueSeRema #icesp #governodesp #programaremama #cancerdemama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil #ibcpc #donmckenzie #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>80</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>April 6, 2024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>"Dia Mundial da Atividade Física 
+Temos aprendido que literalmente, movimento é vida.
+E nesta dinâmica tivemos hoje o prazer de compartilhar momentos preciosos com os queridos da turma de Ciência de Dados, do @senaisp.scsinformatica.
+.
+.
+🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️🚣🏻‍♀️
+#diamundialdaatividadefísica 
+#dragonboat 
+#eprafrentequeserema 
+#cancerdemama
+#cancerdemamatemcura
+#prevencaodocancerdemama 
+#linfedema 
+#hávidaapósocâncer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>100</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>November 1, 2023</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>"Nossa maravilhosa Carmen, exemplo de superação, inspiradora e uma das fundadoras da Equipe Remama Dragão Rosa ❤️❤️❤️
+#Repost @secretariamulhersp 
+——
+🎀 Encerramos o Outubro Rosa com uma história de superação!
+👉 Conheça a história da Carmen e descubra a importância do autoexame e dos exames de rotina, como a mamografia.
+#SPMulher #GovernoSP #SãoPauloSãoTodos #OutubroRosa
+#institutodocancersp
+#remama
+#remamadragaorosa
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>57</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>May 4, 2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>"Para aproveitar bem as manhãs de remada, as remadoras da Remama Dragão Rosa, estão abastecidas de alegria, energia e se protegem do sol com bonés, protetor solar, além de usar suas braçadeiras de contenção do linfedema.
+Atentas ao auto cuidado🫶🏻
+E bora remar!
+🚣🏻‍♀️☀️😎🚣🏻‍♀️☀️😎🚣🏻‍♀️☀️😎🚣🏻‍♀️☀️😎🚣🏻‍♀️☀️😎🚣🏻‍♀️☀️
+#carpediem 
+#havidaaposocancer
+#eprafrentequeserema
+#cancerdemama
+#cancerdemamatemcura 
+#linfedema
+#autocuidado"</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>119</v>
+      </c>
+      <c r="C35" t="n">
+        <v>17</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>October 8, 2023</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>"Nossas histórias se juntaram no mesmo barco e no momento em que passávamos pela pandemia, nossa querida Mari teve a excelente ideia de nos entretermos tecendo cada uma, um trecho desta colcha, que seria reunida quando voltássemos às atividades normais.
+Muitas águas se passaram e algumas  amigas se foram, ficaram imortalizadas em nossos corações. 
+Esta colcha é o desejo cumprido de nossa Marilene e retrata nosso carinho e orgulho pelo grupo que somos e por todos os queridos que dele fazem parte e permanecem em nossos corações ❤️
+#mariadorosario❤️
+#cristinaquiteria❤️
+#jobarbosa❤️
+#marinalvafarias❤️
+#marilenesilva❤️
+#luziaroberto❤️
+#filomenaaparecida❤️
+#dulcemaran❤️
+#claudio❤️
+#arletemendes❤️
+🪡❤️🧵🚣🏻‍♀️🧶🪡🚣🏻‍♀️❤️🧵💓🪷"</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>June 29, 2023</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Vivi Attis no Instagram: "Momentos que guardamos no coração ♥️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>91</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>May 18, 2023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>"Mais uma manhã de vida restituída
+🙌🏻💞💪🏻🚣🏻‍♀️💕😘
+#hávidaapósocâncer
+#eprafrentequeserema
+#cancerdemama 
+#linfedema
+#breastcancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>120</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>October 16, 2022</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>"Momentos de descontração e leveza, de compartilhar alegrias.
+A vitória é de todas, que têm se permitido se reinventar, depois da surpresa do diagnóstico, da incerteza sobre o futuro.
+Celebramos dia a dia, a segunda chance que nos foi dada, com o apoio de nossas famílias e dos amigos que nos foram apresentados e que são acrescentados, tornando-se parte de nossa história.
+Obrigada a cada uma que pôde participar e contribuir com a força de sua linda história de superação.
+Obrigada, Remamas e Kaoras: todas somos mais que vencedoras!
+Viva a vida!!!
+🏆💖🏆💖🏆💖🏆💖🏆💖🏆💖🏆💖
+#outubrorosa 
+#cancerdemama 
+#havidaaposocancer 
+#eprafrentequeserema 
+#remama
+#kaora
+@projeto_kaora 
+@institutodocancersp 
+@cepeuspoficial 
+@redelucymontoro 
+@eefeusp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>67</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>July 27, 2023</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>"Enquanto isso, lá na Raia...
+Elas se movimentam e se divertem🚣🏻‍♀️🤙🏻
+#hávidaapósocâncer 
+#cancerdemama
+#cancerdemamatemcura 
+#linfedema
+#atividadefisica"</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>123</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>May 27, 2023</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>"VIDA APÓS O CANCER
+Tem sido os melhores dias de nossas vidas!
+Nosso profundo agradecimento ao Programa Remama que nos possibilitou viver esta experiência, outrora impensável para nós, na maioria pacientes 
+vindas do SUS.
+A vida nos apresentou por meio do câncer, fomos literalmente colocadas no mesmo barco e agora, a saúde nos mantém unidas.
+Compartilhamos de momentos incríveis e intensos, que jamais imaginaríamos passar.
+E assim nos fortalecemos e continuamos, com o olhar aberto a novas possibilidades!
+🚣🏻‍♀️❤️🚣🏻‍♀️❤️🚣🏻‍♀️❤️🚣🏻‍♀️💕🚣🏻‍♀️❤️
+#hávidaapósocâncer
+#eprafrentequeserema
+#cancerdemama
+#linfedema
+#reabilitacao 
+#vida 
+#alegria
+#gratidao 
+#solidariedade
+#sororidade
+#remama
+🚣🏻‍♀️🌻🚣🏻‍♀️🌻🚣🏻‍♀️🌻🚣🏻‍♀️🌻🚣🏻‍♀️🌻🚣🏻‍♀️🌻🚣🏻‍♀️🌻🚣🏻‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>133</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>December 15, 2022</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>"#feliznatal 🎄🎄🎄"</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>June 1, 2021</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>"Ainda no clima de aniversário recente, a história do Programa Remama, num relato de 2019, com a Dra. Christina e a Taís do @circulofeminino:
+Os créditos do vídeo vão para a querida Taís Caldas do Círculo Feminino.
+"Você vai amar este vídeo. Conversei com a Dra. Christina May Moran de Brito, coordenadora médica do Serviço de Reabilitação do @institutodocancersp (Icesp) da Faculdade de Medicina da Universidade de São Paulo - @fmuspoficial, que se deparou com o movimento internacional de remo para mulheres com câncer de mama.
+O movimento teve início no Canadá em 1996 com os estudos do Dr. Don Mckenzie - e já tinha se alastrado para 12 países (entre eles, na época: Austrália, Itália, Nova Zelândia, Singapura, Polônia, Estados Unidos e Malásia), cadastrados na International Breast Cancer Paddlers Commission (@IBCPC - @ibcpc.com). Logo, idealizou incluir o Brasil nesta frente.
+O Serviço de Reabilitação do ICESP da FMUSP já apresentava um programa de condicionamento físico supervisionado e a @raia.olimpica da @usp.oficial seria ideal para a prática. Fez contato com a Profa. Linamara Rizzo Battistella (Professora responsável pela Rede de Reabilitação @redelucymontoro e, com o Prof. Carlos Bezerra de Albuquerque, Diretor do Centro de Práticas Esportivas da Universidade de São Paulo - @cepeuspoficial, responsável na ocasião pelas atividades da Raia Olímpica da USP - Regatas, e ambos prontamente abraçaram a ideia e o nome Remama.
+A atividade traz inúmeros benefícios, entre eles: melhora da capacidade física, da funcionalidade, da composição corpórea, da fadiga oncológica, dos transtornos do humor (como a depressão e a ansiedade), dos distúrbios do sono, do controle do linfedema, uma vez tratado e estabilizado, da participação social, ou seja: do estado de saúde e da qualidade de vida como um todo.
+Mais além, o convívio com as pares que enfrentaram desafios semelhantes tem um imenso valor.''
+#havidaaposocancer #eprafrentequeserema #icesp #institutodocancerdoestadodesp #eefeusp #programaremama #raiaolimpicadausp #usp #cepeusp #redelucy #eusoulucy #aedrehc #hsiriolibanes #remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>26</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>November 24, 2022</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>"#vaibrasil 
+#vamosjuntos"</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>35</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>February 4, 2021</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>"Neste Dia Mundial de Combate ao Câncer, nossa querida remadora @marialuciaito , registra aqui também sua experiência com um estilo de vida saudável. 
+#Diamundialdocancer 
+#Diamundialdecombateaocancer
+#worldcancerday 
+#WCD2021"</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>48</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>June 26, 2023</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>"#Repost @gfaria_sp 
+——
+gfaria_sp O que importa são os momentos porque a vida é feita de momentos e nada mais!
+Mais um pouco do sábado, que foi bom demais ❤️❤️❤️
+Valeu, @dragonumaumabrasil 
+🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳"</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>98</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>September 6, 2023</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>"Nossa amada Arlete foi remar no céu.
+Amiga querida, amorosa, exemplo de força, viveu intensamente, e nos deixa cheias de saudades!
+Que tempo precioso tivemos juntas!
+Sempre arranjava um tempo para estar junto e compartilhar seu cafezinho inesquecível 💖
+Amamos você, querida!
+Nosso abraço e sentimentos à família, igualmente querida!
+🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>October 16, 2019</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>"Reposted from @jornaldagazeta (@get_regrann) - 
+ Estamos no mês que é mundialmente lembrado pelo combate ao câncer de mama. E, em incentivo a campanha do Outubro Rosa, um festival, digamos que aquático, marca a celebração da recuperação e luta contra essa doença. 
+O Projeto Remama, aqui de São Paulo, tem como objetivo promover o estímulo à vida e à autoestima. - #regrann 
+Link na bio: 
+https://youtu.be/oixdPKZaJho
+#havidaaposocancer #eprafrentequeserema 
+#outubrorosa #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil  #adeteccaoprecoceeomelhorcaminho #icesp #cepeusp #eefeusp #redelucy #aedrehc #hsiriolibanes"</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>October 16, 2022</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>"Outubro Rosa Kaora 2022
+#outubrorosa 
+#cancerdemama 
+#havidaaposocancer 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>35</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>July 31, 2017</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>"REPRESA DE GUARAPIRANGA.
+As remadoras da equipe Remama Dragão Rosa remam na represa de Guarapiranga com @ricardo.faro.899.
+Mais um pouco e estará nas Raias da USP.
+#gratidao #alegria #dragonboatbrasil  #remamadragaorosa #yachtclubpaulista
+#programaremama #cancerdemama  #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil #ibcpc #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>68</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>November 1, 2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>"Nosso Outubro Rosa, recheado de histórias de superação!
+#Repost @saude_sp 
+——
+Monise Oliveira, 39 anos, foi diagnosticada há um ano com câncer de mama e iniciou acompanhamento e tratamento no @institutodocancersp. Desde então, muitas transformações aconteceram em sua vida.
+Conheça essa incrível história 💓
+#OutubroRosa #ÉPraFrenteQueSeRema #SaudeGovSP"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>22</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>May 23, 2020</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>"Comemoramos em Março passado, 3 Anos de formação da Equipe Remama Dragão Rosa! 
+Aprendemos a importância do repartir, além do peso do barco, sentimentos: dividimos responsabilidades e solidariedade.
+Queremos sobretudo, à partir da experiência que temos vivido, comunicar vida e esperança, principalmente aos que passam pelo episódio do câncer. 
+Foram muitas chegadas, algumas partidas,  muitos momentos que ficaram eternizados em nossas mentes e corações. 
+"Se não puder voar, corra. 
+Se não puder correr, ande. 
+Se não puder andar, rasteje, mas continue em frente de qualquer jeito." 
+Martin Luther King
+#remamadragaorosa #havidaaposocancer #eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>61</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>October 25, 2017</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>"Nossa gratidão ao "time" da ESPN que tão lindamente retratou nossa história!!! Gratidão imensa!!! 😄🙏😄🙏😄 "Há vida após o câncer! " 🚣😍❤😍❤😍🚣 #Repost from @mundoespn with @regram.app ... SABIA QUE O REMO PODE AJUDAR NA RECUPERAÇÃO DO CÂNCER DE MAMA?! Guerreiras do Dragão: remo faz mulheres se unirem e superarem o câncer de mama com autoestima 👱🏻‍♀️👩🏻🚣‍♀️ Link na bio! 
+#espnwbrasil #mundoespn  #outubrorosa #outubrorosanaESPN #penserosa #cancerdemama #cancertemcura #remama #remamadragaorosa #icesp #cepeusp #eefeusp #redelucy #governosp #saudesp #esportepratique #sportclick #EPraFrenteQueSeRema
+#gratidao #alegria  #dragonboatbrasil #programaremama #breastsurvivor #aedrehc  #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp 
+#remadorasrosasdobrasil
+#ibcpc #donmckenzie 
+@mundoespn
+@espnwbrasil
+@icesp 
+@governosp
+@saude_sp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>45</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>December 24, 2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>"Feliz Natal prá todos!
+Com muita saúde, amor e paz!
+São nossos votos para todos!
+🚣🏻‍♀️🎄🚣🏻‍♀️🎄🚣🏻‍♀️🎄🚣🏻‍♀️🎄🚣🏻‍♀️🎄🚣🏻‍♀️🎄🚣🏻‍♀️🎄
+#feliznatal 
+#merrychristmas 
+#buonnatale"</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>October 14, 2020</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>"Sem convênio, sem dinheiro, cheia de coragem, força e esperança a remadora Tânia Graziano conta a  caminhada dela na vitória contra o câncer de mama.
+#outubrorosa 
+#prevencaodocancerdemama 
+#eprafrentequeserema 
+#havidaaposocancer
+@taniagraziano 
+@institutodocancersp
+@cepeuspoficial
+@EEFEUSP
+@Rede lucy
+@hsiriolibanes
+@aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>October 12, 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>"As lindas e charmosas meninas da @equipedragonboatflordelotus , cruzando as águas da Raia"</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>27</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>January 22, 2022</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>"#UseHeart #UseHeartamericas"</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>February 4, 2021</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>"Nossa guerreira Arlete, dando seu recado neste dia importante."</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>52</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>"Você também é imparável, amiga querida! 😍
+Guerreiras do Dragão Rosa
+#havidaaposocancer 
+#eprafrentequeserema 
+#programaremama 
+#cancerdemama 
+#linfedema 
+#exercicioeremedio
+#dragonboat 
+#dragonboating 
+#breastcancer 
+#breastcancersurvivor"</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>55</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>November 26, 2018</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>"Nossas remadoras marcaram presença no encerramento do Outubro Rosa
+#programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp  #remadorasrosasdobrasil #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc #prevencaodelinfedema #esporteevida"</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>October 12, 2020</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>"No Outubro Rosa com a remadora Rute o alerta  para a importância da mamografia e da luta por uma área da saúde com mais organização e estrutura.
+#outubrorosa
+#Outubro
+#havidaaposocancer 
+#remama 
+#remamadragaorosa
+@ruteaparecidapinto
+@institutodocancersp
+@cepeuspoficial
+@EEFEUSP
+@Rede lucy
+@aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>52</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>October 22, 2023</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>"Mais uma participação no KAORA Festival
+Esta foi a 6a Edição!
+Agradecemos aos queridos amigos do @projeto_kaora
+Que nos proporcionaram novamente, momentos incríveis!
+#havidaaposocancer
+#cancerdemamatemcura
+#eprafrentequeserema
+@remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>39</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>November 20, 2022</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>"A Profa. Patricia Chakur Brum explica sobre a recomendação de exercícios físicos para a prevenção, reabilitação e reincidência do câncer.
+Acompanhe a matéria na íntegra no Jornal da USP
+através do link: https://jornal.usp.br/atualidades/evitar-o-sedentarismo-e-ponto-fundamental-na-prevencao-de-diversos-tipos-de-cancer/
+#cancerdemama 
+#exercicio
+#breastcancer
+#exerciseismedicine
+#havidaaposocancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>51</v>
+      </c>
+      <c r="C63" t="n">
+        <v>13</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>May 28, 2020</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>"Ontem completamos 7 anos de Programa Remama! 
+Este ano a comemoração foi virtual, por conta do momento de distanciamento social a que estamos sujeitos.
+Tivemos um tempo de recordações, de tagarelices, de saudades, muito proveitoso!
+É para nós um motivo de grande satisfação e  orgulho participar de um grupo que nasceu e tem parceiros com a cultura da humanização, o que trouxe muitos benefícios adicionais.
+Somos cercadas por grandes corações!
+Queremos expressar nossa gratidão incondicional e o nosso muito obrigada!
+Aqui fica o registro de nossa história e de "alguns "momentos nossos, que ansiamos retomar, tão logo seja possível.
+Remar trouxe novos significados para nossa vida. 
+Desejamos, principalmente à você que é sobrevivente de câncer de mama, que a nossa experiência, baseada em estudos científicos, possa trazer inspiração e esperanças renovadas!
+Grande beijo à todos! "Coragem, ação, Guerreiras do Dragão... Rosa!" @institutodocancerdesp
+@redelucy
+@cepeusp
+@eefeusp
+@aedrehc
+@hsiriolibanes
+@cmoranbrito
+@patriciachakur 
+@rfpb_10 
+@remadorasrosasdobrasil 
+@cleusaalonso 
+@adriana.bartoli.12 
+@ricardo.faro.899 
+@robert_almeidadias 
+@fabiopaivacanoagem 
+@canoagembrasileira 
+@roamaboatoficialpauloafonso 
+@carrancaboat 
+@timegirassol 🙏🙏🙏🙏🙏🙏
+👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻
+🎉🎉🎉🎉🎉;
+;
+;
+;
+#havidaaposocancer
+#eprafrentequeserema
+#ibcpc #donmckenzie #remama #programaremama #remamadragaorosa
+#remadorasrosasdesp #remadorasrosasdobrasil 
+#festivalderemadorasrosas #festivalkaora
+#kaora
+#dragonboatbrasil 
+#dragonboatpaddlers"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>57</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>December 28, 2019</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>"Ano de muitas emoções... de perdas irreparáveis, coração apertado, saudoso.
+Então, fomos positivamente  surpreendidas com um crescimento, que trouxe novas experiências  que tem nos alegrado e  fortalecido a cada dia o grupo. 
+Como diz Almir Sater: 🎶"(...)Penso que cumprir a vida
+Seja simplesmente 
+Compreender a marcha
+E ir tocando em frente (...) É preciso amor prá poder pulsar, é preciso paz prá poder sorrir, é preciso a chuva para florir(...)"🎶 Nossa gratidão por tudo o que passamos e pelas possibilidades de futuro e esperanças  renovadas!
+Boas Festas e um 2020 maravilhoso à todos! 
+HÁ VIDA APÓS O CÂNCER!!! 🎉🎉🎉 É pra frente que se rema!
+🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️ 
+#icesp #cepeusp #redelucy #aedrehc #hsiriolibanes  #programaremama 
+#copabrasildeparacanoagem #canoagembrasileira #ibcpc #saudesp #governodesp #roama
+#uniofbath
+#radiousp #debemcomvoce #reveleorosa #reflexoespiccadilly #festivalderemadorasrosas #remadorasrosasdesp  #remadorasrosasdobrasil #bomdiasp #jornaldagazeta #circulofeminino #portalig  #uol #jornaldestak 
+#bibliotecafousp #danielleferraz  #igrejacentral #fasm.oficial"</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>45</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>December 3, 2023</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>"Mais uma linda participação na Icesp Run
+Há vida após o câncer!
+Movimento é vida!
+#hávidaapósocâncer 
+#eprafrentequeserema 
+#cancerdemamatemcura 
+#cancer
+#exerciciofisico
+#atividadefisica"</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>24</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>November 28, 2023</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>"#dianacionaldecombateaocâncer 
+#hávidaapósocâncer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>44</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>May 22, 2018</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>"Festa!!!!🎉🎈🎉🎈🎉🎈🎉 ICESP 10 anos #IcespRun2018 @institutodocancersp
+#programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil  #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>July 20, 2020</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>"Amigos
+Tenho amigos que não sabem
+o quanto são meus amigos.
+Não percebem o amor que lhes devoto
+e a absoluta necessidade
+que tenho deles.
+A amizade é um sentimento mais nobre
+do que o amor, eis que
+permite que o objeto dela
+se divida em outros afetos,
+enquanto o amor tem intrínseco o ciúme,
+que não admite a rivalidade.
+E eu poderia suportar,
+embora não sem dor,
+que tivessem morrido todos os meus amores...
+Mas enlouqueceria se morressem
+todos os meus amigos!
+Até mesmo aqueles que não percebem
+o quanto são meus amigos e
+o quanto minha vida depende
+de suas existências ...
+A alguns deles não procuro,
+basta-me saber que eles existem.
+Esta mera condição me encoraja
+a seguir em frente pela vida.
+Mas, porque não os procuro com assiduidade,
+não posso lhes dizer o quanto gosto deles;
+Eles não iriam acreditar...
+Paulo Santana
+#Felizdiadoamigo #remadorasrosasdoremama #remamadragaorosa #remama 
+#remadorasrosasdobrasil #familiaremama"</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>July 20, 2021</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Remama Dragão Rosa Oficial no Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>77</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>March 11, 2020</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>""Que nada nos defina, que nada nos sujeite.
+Que a liberdade seja a nossa própria substância, já que viver é ser livre." Simone de Beauvoir 📽@rfpb 
+#havidaaposocancer #eprafrentequeserema 
+#remama #remamadragaorosa
+#remadorasrosas #remadorasrosasdoremama #remadorasrosasdobrasil #dragonboat #icesp #cepeusp #eefeusp #aedrehc #redelucy #ibcpc #wld #wcd
+#cancer #cancerdemama #prevencaodocancer #linfedema #prevencaodolinfedema
+#breastcancerpaddlers
+#breastcancer #lymphedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>52</v>
+      </c>
+      <c r="C71" t="n">
+        <v>11</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>October 21, 2020</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>"Nosso Programa se encontra suspenso por conta da pandemia, permanecemos nos movimentando e sendo monitoradas pela pesquisa ligada ao Programa Remama.
+Neste registro de Outubro de 2018, nosso treinador e mestrando Raphael @rfpb_10 - fala sobre a importância da atividade física e #prevenção.
+Você já ouviu falar sobre a campanha Outubro Rosa?
+Outubro Rosa é uma campanha realizada desde a década de 90, nos meses de outubro, para conscientizar e alertar as mulheres sobre a prevenção e diagnóstico precoce do câncer de mama.
+Hoje, as chances de sobrevivência após o diagnóstico aumentaram bastante, e como resultado, muitas pesquisas estão focando na qualidade de vida das sobreviventes após a retirada do tumor.
+Confiram o vídeo do nosso mestrando Raphael Ferreira, que está trabalhando e pesquisando a influência da atividade física em sobreviventes do câncer de mama com o Programa Remama, que une orientação profissional de qualidade, amizade e atividade física!
+#RaphaCMEP #CMEP #OutubroRosa #CancerdeMama 
+#outubrorosa
+#prevencaodocancerdemama 
+#havidaaposocancer 
+#remama 
+#remamadragaorosa
+@institutodocancersp
+@cepeuspoficial
+@eefeusp
+@redelucymontoro
+@aedrehc
+@cmoranbrito
+@patriciachakur"</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>118</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>August 27, 2022</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>"#movimentoevida
+#havidaaposocancer
+#exercícioéremédio 
+#exerciseismedicine 
+#remama
+#remamadragaorosa
+#institutodocancersp 
+#cepeusp 
+#redelucy
+#eefeusp 
+#aedrehc
+#cancerdemama
+#linfedema
+#breastcancer
+#breastcancersurvivor
+📽️@fatiferrei"</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>65</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>September 5, 2019</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>"Treino de hoje. Incentivo do treinador Rafael 🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️🚣‍♀️
+#eprafrentequeserema 
+#havidaaposocancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>46</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>May 8, 2022</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>"Feliz Dia das Mães
+#diadasmaes 
+#felizdiadasmaes"</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>48</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>August 15, 2023</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>"#Repost @ibrachinaoficial 
+——
+#NaMídia: Dragon Boat Festival by Chinese Bridge Club in SP na SBT News 🎥
+No sábado (12), o @sbtnews, que acompanha as principais notícias do Brasil e do mundo, transmitiu uma matéria sobre o Dragon Boat Festival que foi realizado naquela manhã.
+Você participou do evento? Confira o vídeo!
+#ibrachina #cbcsp #chinesebridge #dragonboatfestival #china #sbtnews"</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>85</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>March 28, 2020</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>"Estamos torcendo para que passemos por esta fase o mais rápido possível.
+Enquanto isso, entre vários resgates que estamos fazendo, também vamos contando os dias para viver mais momentos  como estes!
+Saudades de tudo e de todos!!! #havidaaposocancer #eprafrentequeserema #remama #programaremama #remamadragaorosa
+#icesp #cepeusp #eefeusp #aedrehc #redelucy #ibcpc
+#remadorasrosasdoremama #remadorasrosasdesp #remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>146</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>October 16, 2022</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>"Remama no Kaora, Outubro Rosa em Santos!
+Uma alegria poder compartilhar vida, ao lado das  queridas meninas do @projeto_kaora .
+Dia de celebração, trocas e muitas alegrias!
+Aloha!
+#outubrorosa
+#cancerdemama
+#kaora
+#remama
+#remamadragaorosa 
+#remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>22</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>October 14, 2020</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>"🎉🎉LINK DIVULGADO na Bio!🔝🔝🔝
+  Anote na agenda!
+ AMANHÃ,  Dia 15/10,  #TransmissãoAoVivo 🎀
+O tema da vez é Câncer de Mama: da Prevenção à Reabilitação🌸 
+Na quinta-feira (15/10), das 17h às 19h, a Profa. Dra. Linamara Rizzo Battistella, Professora Titular de Fisiatria, Medicina Física e Reabilitação da FMUSP mediará um bate-papo com a coordenadora médica do Serviço de Reabilitação do Icesp, Profa. Dra. Christina May Moran de Brito e a médica responsável do Grupo de Oncologia Mamária do Icesp, Laura Testa. Também participam da conversa a oncologista do Centro de Oncologia do Hospital Sírio-Libanês, Dra. Marina Sahade, a Profa. Dra. Patrícia Brum, da Escola de Educação Física e Esporte da USP e as remadoras do Programa Remama, Denise Reis e Etsuko Saizaki. 💖
+Acompanhe a mais uma transmissão do #OutubroRosa pelo link 👉🏽 https://url.gratis/U4U5U
+ 🚣‍♀️💕 LINK na Bio 🚣‍♀️💕"</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1123</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>April 11, 2024</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>"O dia estava encoberto, mas não parou o dragão que "nadou" forte e animado!
+Valeu, Gabi's: @gabebc95 e @mirandaabiell !!!
+Valeu Remama😍😍😍🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️🪷🚣🏻‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>85</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>March 14, 2024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>"Remama é alegria, energia e segurança 🛟!
+🚣🏻‍♀️🛟🚣🏻‍♀️🛟🚣🏻‍♀️🛟🚣🏻‍♀️🛟🚣🏻‍♀️🛟🚣🏻‍♀️🛟🚣🏻‍♀️🛟🚣🏻‍♀️
+.
+.
+.
+.
+ #cancerdemama
+#cancerdemamatemcura 
+#remama
+#remamadragaorosa
+#oncofitt
+#segurancaabordo"</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>56</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>May 11, 2022</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>"Exercício é remédio!
+Mexa-se, seu corpo agradece🤗🥰💪
+#exercicioeremedio
+#havidaaposocancer 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>417</v>
+      </c>
+      <c r="C82" t="n">
+        <v>73</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>July 25, 2023</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Vivi Attis no Instagram: "Tudo Passou 🙏🏻 e hoje tenho a grande oportunidade de viver e ser muito feliz❣️
+.
+#suvivorcancer 
+#remadorasrosas 
+#cancerdemamatemcura 
+#diagnosticoprecocesalvavidas 
+#atividadefísicaéessencial 
+#remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>62</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>December 18, 2023</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>"Momento especial❣️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56</v>
+      </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>June 19, 2023</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>"𝑶𝒓𝒊𝒈𝒆𝒎 𝒆 𝒔𝒊𝒈𝒏𝒊𝒇𝒊𝒄𝒂𝒅𝒐 𝒅𝒐 𝑳𝒐𝒈𝒐 𝒅𝒂 𝑬𝒒𝒖𝒊𝒑𝒆 𝑹𝒆𝒎𝒂𝒎𝒂 𝑫𝒓𝒂𝒈𝒂̃𝒐 𝑹𝒐𝒔𝒂🩷
+A inspiração:
+ Quando nós mulheres recebemos o diagnóstico de câncer de mama, nos sentimos como uma Flor-de-Lótus ainda fechada sob a água lodosa, na penumbra, temendo as sombras e aguardando submergir para a luz da transformação, igual à mesma flor na esperança do desabrochar para a vida plena, à caminho do sol, livre de impurezas. 
+  Conhecemos então, o Barco Dragão Chinês(Dragon Boat), fomos convidadas a remar nele, no seu doce balanço e aconchego, com suas histórias e mitos, aparência de poder.  Nesta nossa aceitação inteligente, enfrentando os medos e, cheias de coragem e entusiasmo, cada uma de nós tornou-se a Flor-de Lótus aberta e esplendorosa como na ilustração do nosso logo, tendo acima dela os símbolos de Força, Luz e Proteção: o arco solar e as espirais de fogo, ainda abaixo, nossos remos poderosos sugerindo nossa presença e as águas a serem navegadas.
+  Assim, todos os símbolos ilustrados demonstram nossas riquezas interiores, esclarecimento, elevação da alma, beleza e feminilidade, encontro, união, vitalidade em corpo saudável e corações a bater em peitos cheios de felicidade e gratidão pela vida! 
+  ᴇϙᴜɪᴘᴇ ʀᴇᴍᴀᴍᴀ ᴅʀᴀɢᴀ̃ᴏ ʀᴏsᴀ
+ "cօɾαցҽต, αçα̃օ, ցմҽɾɾҽíɾαs ժօ ժɾαցα̃օ... ɾօsα!!!"
+Texto de Carmen Lucia, nossa inspirada remadora e co-fundadora da Equipe Remama Dragão Rosa 🐲🌹🩷🩷🩷🩷
+#historia
+#havidaaposocancer
+#eprafrentequeserema
+#cancerdemama
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>25</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>"Semana 3 - Exercício Físico e Atividade Física
+🏋️‍♀️🚴‍♀️🏊‍♀️⛹️‍♀️
+#remama 
+#Remamaon 
+#remamaonline 
+#exercicioeremedio 
+#havidaaposocancer 
+#selodireitoshumanosediversidade
+#mulheres
+#mulheresqueremam
+#cancerdemama
+#linfedema 
+#donmckenzie 
+#remadorasrosas
+#remadorasrosasdobrasil 
+#ibcpc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>104</v>
+      </c>
+      <c r="C86" t="n">
+        <v>14</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>October 8, 2023</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>"Nosso simpósio tão esperado e ansiado aconteceu.
+Mudanças de planos na última hora.
+Nossas meninas não se abateram e mesmo em meio a adversidades, se dedicaram, acreditaram e tornaram possível que o evento fosse lindo, receptivo, acolhedor, como nós somos!
+Obrigada ao nosso time de professores, tão dedicados e focados em nos preparar para performarmos bem!
+Professor Christian, sempre atento a detalhes, buscando soluções e incentivando ações;
+Professor Farah querido nos acompanhando sempre, norteando ações, assertivo;
+Professor Marcos Ito, parceiro presente nas decisões, apoio seguro;
+Professora Patricia, com seus multitalentos e seus muitos filhos igualmente talentosos, que temos o prazer de conhecer e conviver;
+Professora Christina seus estudos, perspicácia e coração,  deram início ao Programa Remama, que mudou as vidas de todos nós!
+Que time!
+Todos produtores de aprendizado, dedicando o seu melhor para que tudo se mantenha acontecendo.
+O Programa Remama trouxe a nós, benefícios físicos e psicológicos incríveis, relatados anteriormente por outros grupos, também inspirados nos estudos do Dr. Don McKenzie. 
+O Programa Remama foi pioneiro ao permitir que mulheres mastectomizadas, vindas em sua maioria do SUS tivessem acesso a um modelo multiassistencial, que proporciona um acompanhamento rico e constante e que é produtor de conteúdo científico para todos!
+Programa Remama, para os íntimos: Família Remama, tem muito amor, acolhimento e é altamente solidário.
+Temos problemas, como qualquer lugar possui, mas não paramos;  assim como na remada: quando um cansa e precisa parar, outro assume e continua.
+Obrigada a você remadora, que faz do Remama ser o que é: vívido e sem a vergonha de ser feliz!
+Desejamos seguir inspirando o movimento, a atividade física que traz prazer e benefícios nesta nova realidade de vida que nos permite não apenas dizer, mas experimentar que há vida após o câncer!
+Obrigada a você que veio abrilhantar nossa festa, com sua presença e coração aberto: amamos repartir estes momentos incríveis com vocês !
+#hávidaapósocâncer 
+#viverenaoteravergonhadeserfeliz 
+Canomama🪷 Flor de Lótus🚣🏻‍♀️ Rosas D'água 🪷 Tchê Rosa🚣🏻‍♀️ UmaUma🪷 KAORA🚣🏻‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>46</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>February 4, 2023</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>""Ao mesmo tempo em que vivemos em uma época de avanços inspiradores na prevenção, diagnóstico a tratamento do câncer, muitos de nós que buscamos cuidados para o câncer encontramos barreiras de todos os tipos Renda, educação, localização geográfica e discriminação com base na raça, gênero, orientação sexual, Incapacidade e estilo de vida são apenas alguns dos fatores que podam afetar negativamente nestes cuidados."
+O tema do Dia Mundial do Cancer, por cuidados mais justos, trata se de entrar em ação. 
+#worldcancerday
+#CloseTheCareGap
+#diamundialdocancer
+#diamundialdecombateaocancer
+#porcuidadosmaisjustos
+#havidaaposocancer
+#eprafrentequeserema
+ #remama
+#remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>40</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>March 6, 2021</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>"Hoje, 06 de Março  é o Dia Mundial de Combate ao Linfedema.
+Você paciente de câncer de mama, já deve ter ouvido sobre "linfedema".
+Segue para você a nova série de vídeos.
+Vídeo 1- O que é o Linfedema - Dra. Christina Brito - ICESP 
+Vídeo 2 - Como o  exercício auxilia o tratamento do linfedema - Profa. Patricia Chakur Brum - EEFEUSP
+Vídeo 3 - Os benefícios do remo e canoagem no linfedema - Prof. Christian Klausener - CEPEUSP 
+Acompanhe, curta e compartilhe esta informação.
+#worldlymphedemaday #wld2020 #wld2021 #lymphedema #diamundialdecombateaolinfedema #linfedema 
+#lymphoedema #lymphedemaawereness #conscientizacaodolinfedema
+#primarylymphedema #secondarylymphedema #linfedema primario #linfedemasecundario #remama #remamadragaorosa 
+#remadorasrosasdobrasil
+#ibcpc #donmckenzie
+#icesp #redelucy  #cepeusp #eefeusp #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>53</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>October 20, 2019</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>"Repost  do portal do @governosp by #saver
+Mais da vida após o câncer! 🎗️ Para celebrar a vida, aconteceu o II Festival Paulista de Remadoras Rosas. A iniciativa busca mostrar como o esporte pode ser importante para pacientes que fizeram tratamento e prevenção do câncer de mama. Assista ▶ ⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀
+#saúde #câncerdemama #esporte #governosp #govsp
+#havidaaposocancer #eprafrentequeserema #icesp #cepeusp #eefeusp #redelucy #eusoulucy #aedrehc #hsiriolibanes  #eusouremama #remama #remamadragaorosa #remadorasrosasdesp  #remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>87</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>February 4, 2020</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>"Treino Remama, com Raphael @rfpb_10, no 
+Dia Mundial do Câncer 
+Eu sou sobrevivente e vou treinar!
+#DiaMundialdoCancer #EuSouEEuVou #WorldCancerDay #IAmAndIWill #WCD #WCD2020 #remamapelavida #remamadragaorosa #havidaaposocancer #programaremama #remama
+#institutodocancersp
+#cepeusp
+#redelucy
+#imrea-hcfmusp
+#eefeusp
+#aedrehc
+#RemadorasRosasdoBrasil #Diamundialdocâncer #TodoDiaeDiadeExercicio #EveryDayisExerciseDay #ExercicioAliadoContraoCancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>73</v>
+      </c>
+      <c r="C91" t="n">
+        <v>20</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>October 22, 2023</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>"#Repost @jule.amaral 
+——
+Programa "É de Casa", na Globo. Tive a alegria de conduzir a aula para mulheres do Programa Remama ( @remamadragaorosa ) que na oportunidade contaram sobre sua experiência com o câncer de mama e a prática de exercícios físicos. São relatos inspiradores, que nos fazem refletir sobre nosso papel e nossa função no mundo. Esse é o primeiro, de uma sequência de posts sobre o "Outubro Rosa", que vou fazendo por aqui, finalizando essa campanha tão significativa. Um obrigada especial à Dra. @cmoranbrito que trouxe essa prática à USP e ao Instituto do Câncer do Estado de São Paulo (ICESP - @institutodocancersp ). Viva a saúde humana! Viva a vida! Viva!
+@edecasanasredes @fmusp_oficial @usp.oficial 
+@cepeuspoficial
+#saudefisica #cancerdemama #exerciciosfisicos #oncologia #estilodevidasaudavel
+#linfedema
+Link para a reportagem completa, disponível em nossa Bio
+https://globoplay.globo.com/v/12048421/"</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>28</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>March 17, 2020</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>"Em atenção e colaboração à campanha de prevenção contra o Coronavírus, nossas atividades na raia encontram-se suspensas.
+Prevenir é um dever de todos, neste momento.
+A Organização Mundial da Saúde divulgou 7 passos simples e práticos para proteção contra o coronavirus. São menos de 30 segundos. Assista!
+#Repost @nacoesunidas (@get_repost)
+・・・
+A #OMS @WHO divulgou 7 passos simples para você se proteger do #COVID19 e também proteger as outras pessoas.
+Até está terça-feira, 17 de março, já foram registrados 173,344 casos confirmados da doença no mundo e 7.019 mortes. 152 países e territórios foram afetados pelo #coronavírus.
+Informe-se: paho.org/bra/covid19
+@opspaho 
+@who
+#remama #remamadragaorosa #havidaaposocancer #eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>35</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>May 28, 2021</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>"Completamos 8 Anos de Programa Remama. Quem imaginaria que seria nossa segunda comemoração online, logo nós que somos tão festeiras? Mas não faltou ânimo,  gratidão e alegria por todos os benefícios proporcionados, pelas amizades criadas.
+Sobrou saudades do convívio físico, das remadas, ahhh... das remadas...
+Nossa querida Profa. @patriciachakur conta neste vídeo um pouco de nossa história institucional.
+O Programa Remama, desde 2013 vem transformando as vidas das sobreviventes de câncer de mama através do movimento da remada, com inspiração no movimento @ibcpcibcpc  International Breast Cancer Paddlers Commission .
+@institutodocancersp
+@redelucymontoro 
+@cepeuspoficial 
+@eefeusp 
+@aedrehc 
+@usp.oficial"</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>42</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>October 4, 2017</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>"#Repost @institutodocancersp (@get_repost)
+・・・
+É hora de remar! 🚣🏻‍♀️ Depois do aquecimento, nossas pacientes remadoras já estão prontas para o primeiro treino oficial no novo barco dragão. Vamos lá, time! 🙆🏻💁🏽🙋🏼🙅🏿#ÉPraFrenteQueSeRema, no rumo da prevenção. #OutubroRosaIcesp
+#gratidao #alegria  #dragonboatbrasil #programaremama #breastsurvivor #aedrehc  #dragonboatbrasil #remama #cancerdemama  #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil #ibcpc #donmckenzie  #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy"</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>44</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>August 9, 2023</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>"Roama 2023
+Encontro de saúde, alegria, sororidade!
+Há vida após o câncer!
+Obrigada pelo carinho e cuidado especial com cada uma de nós!
+Vocês são calorosos, assim como a linda terra de vocês ❤️🚣🏻‍♀️❤️🚣🏻‍♀️🌸🚣🏻‍♀️💕🚣🏻‍♀️😘
+@roamaoficialpauloafonso 
+@carrancaboat
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+#cancerdemama 
+#cancerdemamatemcura 
+#havidaposocancer
+#linfedema
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>33</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>October 11, 2020</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>"🌸🌸🌸🌸🌸🌸🌸🌸🌸
+ Ouça o depoimento de Etsuko @etsuko_ts sobrevivente do câncer de mama, que faz parte da Equipe  Remama Dragão Rosa. 
+Conheça sua história de superação e o valor que passou a dar para a saúde.
+📽Vídeo da querida Tais do @circulofeminino que tem um olhar lindo sobre o nosso universo!
+***Gravação realizada antes da pandemia***
+#outubrorosa
+#OutubroRosa
+#prevencaodocancerdemama 
+#havidaaposocancer 
+#remama 
+#remamadragaorosa
+#circulofeminino
+@institutodocancersp
+@cepeuspoficial
+@eefeusp
+@redelucymontoro @aedrehc
+@hospitalhcfmusp 
+@fisiatriasp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>83</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>October 12, 2023</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>"Nossa equipe irmã de SP
+Dragonboat UmaUma, veio trazer sua força e alegria!
+Obrigada vizinhas!🚣🏻‍♀️❤️🚣🏻‍♀️❤️🚣🏻‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>October 27, 2020</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>"Mais uma vez a ciência brasileira é ameaçada e precisamos lutar por ela. #sosfapesp #apoioapesquisa
+#apoioaciencia #ciencia #pesquisa #fapesp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>30</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>December 11, 2022</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>"Raia da USP 50 Anos
+Celebração dos 50 Anos da Raia, com  confraternização dos remadores, experimentando as diferentes embarcações!
+O CEPEUSP promovendo saúde e integração.
+Obrigada professores por nos proporcionarem ensinamentos, amizade e momentos incríveis como este!
+#raiaolimpicadausp
+#50anos
+#Raia50anos
+🎉🚣🏻‍♀️🎉🚣🏻‍♀️🎉🚣🏻‍♀️🎉🚣🏻‍♀️🎉🚣🏻‍♀️🎉🚣🏻‍♀️🎉🚣🏻‍♀️🎉🚣🏻‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>27</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>October 14, 2021</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>"Sim, é verdade...
+Não é mais Setembro, mas este registro lindo do Programa Remama no Setembro Amarelo com nossos queridos Guilherme e Filomena não podia faltar!
+Porque sempre é tempo para falar da saúde mental!🤗🙏
+.
+.
+.
+.
+.
+🎗🎗🎗🎗🎗🎗🎗🎗🎗🎗🎗🎗
+#vocenaoestasozinho 
+#SetembroAmarelo 
+#remama 
+#remamaon
+#remamadragaorosa 
+#havidaaposocancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>117</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>August 20, 2018</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>"A alegria é um dos muitos benefícios com os quais somos presenteadas com o Programa!!!
+#remamadragaorosa #projetoremama #programaremama #icesp #eprafrentequeserema #breastsurvivor #programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil  #ibcpc #donmckenzie #saudesp #governodesp  #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>January 1, 2023</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>"Em 2023, movimente-se! 
+🤸🏼‍♀️⛹️🏋️🚴🤼🏊🚣🏻‍♀️🤽💃🏃🏽‍♀️💝🎉
+.
+.
+.
+.
+.
+#felizanonovo 
+#remama 
+#remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>43</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>October 12, 2018</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>"Bora remar, meninas!!!!
+Imagens das edições anteriores do Kaora, para dar água na boca!!!
+@repost @fabio_opium
+Um grande Festival !!!
+Sem duvida o maior que já teve até hoje 
+200 inscrições gratuitas com direito à camiseta, café da manhã, almoço, shows, clínica com Dragon Boat, alojamento e muita... muita... mas muita alegria garantida!
+III Festival Kaora e I Festival Paulista 
+Dias 19 e 20 de outubro 
+No charmosíssimo Yatch Club Paulista
+#programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil #ibcpc #donmckenzie #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>74</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>June 26, 2021</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>"Do nosso coração,  para você,  Mari!
+🚣‍♀️💕🚣‍♀️💕🚣‍♀️💕🚣‍♀️🚣‍♀️💕🚣‍♀️💕🚣‍♀️💕🚣‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>36</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>"Coma o arco-íris 🌈
+#remama 
+#Remamaon 
+#remamaonline 
+#exercicioeremedio 
+#havidaaposocancer
+#selodireitoshumanosediversidade 
+#mulheres
+#mulheresqueremam
+#cancerdemama
+#linfedema 
+#donmckenzie 
+#remadorasrosas
+#remadorasrosasdobrasil 
+#ibcpc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>57</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>April 12, 2024</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>"Nosso querido mestre e pós doutorando @prof.jeancoelho , passando dicas imperdíveis via Ministério da Saúde.
+Vamos juntos nessa?
+Movimentar-se é preciso 
+#repost from @minsaude 
+.
+.
+.
+Você sabia que é possível praticar atividade física mesmo durante o trabalho?💪🏻
+Selecionamos algumas dicas de exercícios que podem ser incorporados ao seu expediente, como alongamento.
+São pequenas mudanças que trazem grandes benefícios para a sua saúde.
+Assista ao vídeo e compartilhe nos comentários se você já segue alguma dessas práticas!
+#AtividadeFísica #Trabalho #SUS #MinistériodaSaúde #GovernoFederal  #Movimente-se"</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>74</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>March 6, 2020</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>"O movimento da remada nos beneficia também para prevenir e diminuir o linfedema. 
+No Brasil, somos 7 Equipes beneficiadas através dos estudos do Dr. Don Mckenzie, fundador do IBCPC - International Breast Cancer Paddlers Commission.
+Saiba mais com @remadorasrosasdobrasil 
+#havidaaposocancer 
+#eprafrentequeserema  #worldlymphedemaday #wld2020 #lymphedema #diamundialdecombateaolinfedema #linfedema 
+#Isupportworldlymphedemaday #euapoioodiamundialdecombateaolinfedema 
+#lymphoedema #lymphedemaawereness #conscientizacaodolinfedema
+#primarylymphedema #secondarylymphedema #linfedema primario #linfedemasecundario #remama #remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>121</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>April 22, 2023</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>"Continuamente aprendendo
+Permita-me fazer algo novo
+Se desafie, você pode!👊
+Exercício é remédio
+ #exercícioéremédio 
+ #exerciseismedicine 
+ #havidaaposocancer 
+ #lifeaftercancer 
+ #cancerdemama 
+ #breastcancer 
+ #linfedema 
+ #lymphedema 
+ #eprafrentequeserema 
+🐲🌹🐲🌹🐲🌹🐲🌹🐲🌹
+Arlete Andrade 💪🏻🚣🏻‍♀️❤️
+Dulce Soares 💪🏻🚣🏻‍♀️❤️
+Roseli Oliveira 💪🏻🚣🏻‍♀️❤️
+Rute Criado 💪🏻🚣🏻‍♀️❤️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>23</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>March 6, 2021</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>"Dra. @patriciachakur - @eefeusp.
+#worldlymphedemaday #wld2020 #wld2021 #lymphedema #diamundialdecombateaolinfedema #linfedema 
+#lymphoedema #lymphedemaawereness #conscientizacaodolinfedema
+#primarylymphedema #secondarylymphedema #linfedema primario #linfedemasecundario #remama #remamadragaorosa 
+#remadorasrosasdobrasil
+#ibcpc #donmckenzie
+#icesp #redelucy #cepeusp #eefeusp #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>29</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>March 27, 2021</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>"Por mais momentos assim!!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>62</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>October 23, 2018</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>"Um pouco do que foi o 1o Festival  de Remadoras Rosas de SP - 3o Kaora: muita alegria, descontração para uma festa linda!
+Já estamos ansiosas pelo próximo encontro! 🌺🌸🚣‍♀️🌸🌺🚣‍♀️🌸🌺🚣‍♀️🌸🌺 #eprafrentequeserema
+#icesp
+#3kaorasp
+#1festivalderemadorasrosasdesp
+#remamadragaorosa 
+#ycp 
+#canoabrasil
+#redelucymontoro 
+#eusoulucy
+#aedrehc
+#programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil #ibcpc #donmckenzie #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc #centrodetecnologiaeinclusao"</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>45</v>
+      </c>
+      <c r="C112" t="n">
+        <v>16</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>May 12, 2024</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>"Nossa singela homenagem a todas as mães:
+Mãe de filhos, mãe dos pais, mães de pet, mães que geraram os filhos no coração.
+Os tipos mudam, mas o amor não.
+Vocês são essenciais para nossas vidas!
+📷Acervo Remama e @campitafotografia
+🚣🏻‍♀️💓🚣🏻‍♀️💓🚣🏻‍♀️💓🚣🏻‍♀️💓🚣🏻‍♀️💓🚣🏻‍♀️💓🚣🏻‍♀️💓🚣🏻‍♀️
+#diadasmaes"</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>132</v>
+      </c>
+      <c r="C113" t="n">
+        <v>34</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>November 12, 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>"Nossa querida Lourdinha, antecipou sua remada divina.
+Nós aqui ficamos atônitos com sua partida.
+Guardamos no coração, sua alegria contagiante, sua força, sorriso, disposição.
+Obrigada pelo convívio, amiga, por toda generosidade!
+Amamos você!
+Nossos sentimentos a família querida!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>115</v>
+      </c>
+      <c r="C114" t="n">
+        <v>13</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>April 7, 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>"Vida após o câncer!
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+🚣🏻‍♀️
+#diamundialdaatividadefísica
+#cancerdemama
+#linfedema
+#exercícioéremédio
+#exerciseismedicine 
+#havidaaposocancer 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>57</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>October 1, 2022</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>"Outubro rosa
+Esta causa é nossa!
+A prevenção é o melhor caminho!
+🌺🌺🌺🌺🌺🌺🌺🌸🌸🌸🌸🌸
+#outubrorosa 
+#havidaaposocancer 
+#eprafrentequeserema 
+#remama
+#remamadragaorosa 
+#remadorasrosasdobrasil 
+#cancerdemama
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>66</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>December 18, 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>"As Lindas Remadoras que compõem este Lindo e Especial Livro❣️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>62</v>
+      </c>
+      <c r="C117" t="n">
+        <v>10</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>April 8, 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>"A prevenção é o melhor remédio!
+Previna-se
+Movimente-se
+Mantenha-se ativa
+Realize o autocuidado
+Cuide-se!
+Ame-se!
+O resultado, a sincronia chega aos poucos, o importante é começar e continuar 🙏
+"Se não puder voar, corra. Se não puder correr, ande. Se não puder andar, rasteje, mas continue em frente de qualquer jeito."
+Martin Luther King 
+🚣🏻‍♀️🎗️🚣🏻‍♀️🎗️🚣🏻‍♀️🎗️🚣🏻‍♀️🎗️🚣🏻‍♀️🎗️🚣🏻‍♀️🎗️🚣🏻‍♀️🎗️
+#diamundialdecombateaocancer
+#cancer
+#cancerdemama
+#linfedema
+#exercícioéremédio
+#exerciseismedicine 
+#havidaaposocancer 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>March 8, 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>"08 de Março - Dia Internacional da Mulher
+💃
+🌹
+💃
+🌹
+💃
+#diadamulher 
+#diadasmulheres 
+#havidaaposocancer 
+#eprafrentequeserema 
+#combateaocancer
+#cancerdemama
+#linfedema
+#remama
+#remamadragaorosa 
+#remadorasrosas"</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>51</v>
+      </c>
+      <c r="C119" t="n">
+        <v>14</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>November 28, 2022</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>"Vida compartilhada, alegrias multiplicadas.
+#IcespRun
+#despertardodragão
+#havidaaposocancer 
+#exercicioeremedio 
+#eprafrentequeserema
+#sororidade"</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>46</v>
+      </c>
+      <c r="C120" t="n">
+        <v>10</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>November 5, 2019</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>"Relatos de superação.
+Histórias  de vida de quem passou pelo câncer de mama.
+Nossos agradecimentos aos nossos novos amigos da @femininacentral , da @igrejacentralsp , pela linda edição e sensibilidade. 
+Ficamos honradas e gratas por fazer parte da programação da Conferência Feminina Avançar  e propagar de forma prática que
+ Há vida após o câncer!!!
+Recebam nosso carinho e consideração! 
+"O Programa Remama é uma iniciativa do @institutodocancersp (Icesp) , @redelucy e do @cepeuspoficial em parceria com a @eefeusp e a AEDREHC." #havidaaposocancer #eprafrentequeserema  #gratidao #gratitude #icesp #cepeusp #eefeusp #redelucy  #aedrehc #hsiriolibanes #remadorasrosadesp #remadorasrosasdobrasil 🎬@igrejacentralsp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>27</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>November 14, 2018</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>"Serão dias incríveis!!! De 7 a 9 de dezembro
+Vídeo completo
+https://m.facebook.com/story.php?story_fbid=273366400204280&amp;id=253297905544463
+#roama 
+#carrancaboat 
+#pauloafonso 
+#eprafrentequeserema
+#icesp #institutodocancerdoestadodesp 
+#programaremama
+#raiaolimpicadausp #usp #eefeusp
+#cepeusp #redelucy 
+#eusoulucy #aedrehc #sepcd #uniofbath
+#saude  #havidaaposocancer #dragonboatbrasil #dragonboatpaddlers #breastcancerpaddlers #sobreviventedecancerdemama
+#saopaulo #brasil #breastcancersurvivor
+#breastfriends #linfedema #prevencaodelinfedema  #remadorasrosasdoremama
+#remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>51</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>April 25, 2024</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>"Mais um dia para agradecer!
+Obrigada vida!
+Saúde para todos!
+#hávidaapósocâncer 
+#cancerdemama 
+#cancerdemamatemcura 
+#linfedema 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>78</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>October 23, 2023</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Clínica Feito em Corpo no Instagram: "Virando a mesa após o câncer! #projetoremama #remamadragao #exercicoecancer #fisiatria #atividadefisica #mudancadehabito #bemestar"</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>48</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>August 13, 2023</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>"Foi um evento incrível 🌸🚣🏻‍♀️🌸🚣🏻‍♀️🌸
+#dragonboatday
+#Repost @momentochina 
+——
+O Dragon Boat Day, para comemorar o Dia da Imigração Chinesa no Brasil, foi uma iniciativa do Ibrachina (@ibrachinaoficial ) e do Chinese Bridge Club in São Paulo (@cbcspoficial ), com apoio do Consulado da República Popular da China em São Paulo, Secretaria Municipal de Esportes e Lazer de São Paulo, Secretaria de Turismo e Viagens do Estado de São Paulo e da SABESP.
+Os grupos que participaram da corrida são formados por mulheres sobreviventes do câncer de mama: Remama (@remamadragaorosa) e Umauma Dragon Boat Brasil (@dragonumaumabrasil ),ambos de São Paulo, Associação Canomama (@canomama_time ) de Brasília e Nina Rosa (@ninarosadragonboat ), de Santos.
+O evento contou com apresentações de dança do leão e do dragão e kung fu da Associação Kung Fu Garra de Águia Lily Lau Brasil (@atskungfu ); dança artística do grupo Tang Yun e um show do Ibrachina Musical Project, grupo musical que mistura a música tradicional chinesa com os ritmos brasileiros, com uma participação especial de Oscar Wei tocando o instrumento tradicional chinês er hu.
+#momentochina #dragonboatfestival #dragonboatday"</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>82</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>June 24, 2023</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>"Manhã incrível com as meninas do @dragonumaumabrasil .
+Muito bom compartilhar vida com vocês 🎉🎉🎉, neste #dragonboatday
+Obrigada pela recepção, pelo carinho.
+Tem volta.
+🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳🚣🏻‍♀️🌳"</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>144</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>October 7, 2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>"3º Festival Paulista das Remadoras Rosas 
+.
+@institutodocancersp 
+@cepeuspoficial 
+@cmoranbrito 
+@patriciachakur 
+@chklausener 
+@josecarlossimonfarah"</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>52</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>September 22, 2022</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Remama Dragão Rosa Oficial no Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>115</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>August 12, 2023</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>"#Repost @nutri.lorelaikulig 
+——
+Dragon Boat Day 
+Comemoração ao dia do Imigrante Chinês no Brasil 
+Raia da USP 12/08/23
+As equipes de Remadoras Rosa  tornaram o evento ainda mais bonito!! 💞💞
+Parabéns  meninas !!
+@ninarosadragonboat 
+@canomama_time 
+@dragonumaumabrasil 
+@remamadragaorosa 
+@remadorasrosadobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>163</v>
+      </c>
+      <c r="C129" t="n">
+        <v>17</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>August 12, 2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>"Dragon Boat Day
+@ibrachinaoficial 
+@canomama_time 
+@dragonumaumabrasil 
+@ninarosadragonboat"</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>November 15, 2021</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>"#RemamaOn 
+Significados com Prof. Jean Coelho e a remadora Rosângela Marques"</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>80</v>
+      </c>
+      <c r="C131" t="n">
+        <v>8</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>December 18, 2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Patricia Chakur Brum no Instagram: "Lançamento do livro “Mar de Rosas” ,
+Histórias das nossas rosas remadoras que@enfrentaram o câncer de mama. #eefeusp #cepeusp #icesp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>55</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>July 31, 2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>"#Repost @roamaoficialpauloafonso 
+——
+Desfile Cívico de Emancipação com a presença das Remadoras do Roama 2023.
+#hávidaapósocâncer 
+Dias incríveis!!!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>46</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>August 31, 2023</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>"Nos dias 6 e 7 de outubro/23 serão realizados na USP o Simpósio Internacional de Exercício e Câncer e o 3º Festival Paulista de Remadoras Rosas que ocorrerá na Raia Olímpica.
+O Festival Paulista de Remadoras Rosas será realizado no dia 7/10, e terá aulas práticas de remadas, além de atividades recreativas e competitivas no Dragão Boat e Canoas OC6.
+O evento envolve várias instituições, como ICESP,  Faculdade de Medicina, Hospital da Clínicas e Escola de Educação Física e Esporte, da USP, entre outras, e conta, também, com a parceria do CEPEUSP.
+Emilio Miranda
+Jose Carlos Simon Farah
+@Carlos Bezerra de Albuquerque
+@Katia Regina 
+Maria Cassis
+Erica Kika Takigahira
+Ricardo Palatnic
+Universidade de São Paulo - USP
+Instituto do Câncer do Estado de São Paulo (Icesp)
+Hospital das Clínicas da FMUSP
+Faculdade de Medicina USP
+Escola de Educação Física e Esporte - USP
+Remama
+Equipe Remama Dragão Rosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>37</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>October 3, 2019</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>"Hoje completamos dois anos da entrega de nosso Dragon Boat. 
+São muitas emoções vividas e compartilhadas.
+O Dragon Boat é a embarcação oficial das sobreviventes de câncer de mama, filiadas ao IBCPC @ibcpcibcpc que é a Comissão Internacional das Remadoras Sobreviventes de Câncer de Mama. (ibcpc.com). 
+Está espalhado por 26 países e o Brasil conta hoje com equipes em São Paulo, Brasília, Alagoas, Paraná.
+Os estudos do médico canadense Dr. Don Mckenzie inspiraram a criação do Programa Remama, que atende mulheres que passaram por tratamento no Instituto do Câncer do Estado de São Paulo - ICESP, direcionadas pelo SUS, em parceria com a USP e a Rede Lucy Montoro.
+Temos uma estrutura de apoio e acompanhamento exemplares e diante disto, não podemos deixar de expressar nossa gratidão pelo empenho e compromisso de todos que participam e fazem com que o Programa Remama exista e se mantenha.
+É muito bom poder compartilhar dos benefícios que este esporte proporciona, das amizades geradas, da cumplicidade de ter passado pelo mesmo momento.
+Poder dizer que há vida após o câncer e trazer esperança é igualmente  motivador.
+Gratidão pela vida, pelos novos horizontes desenhados com qualidade de vida!
+#icesp #cepeusp #eefeusp #redelucy #eusoulucy #aedrehc #programaremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil  #outubrorosa #cancerdemama"</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>36</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>September 19, 2023</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>"Convite para uma tarde especial, sábado dia 01 de Outubro de 2023, teremos Bingo e Bazar:
+A renda será revertida em prol da Equipe Remama Dragão Rosa e para ajudar o Festival que acontecerá nos próximos dias."</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>140</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>October 7, 2023</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>"Tudo o que é necessário dentro de um barco para primeiros socorros.
+.
+@eefeusp 
+@cepeuspoficial 
+@institutodocancersp 
+@cmoranbrito 
+@patriciachakur"</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>187</v>
+      </c>
+      <c r="C137" t="n">
+        <v>59</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>April 12, 2024</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>"Uma experiência inspiradora ao lado das remadoras! 🚣‍♀✨ Os alunos do SENAI tiveram o privilégio de visitar e aprender com essas incríveis atletas durante o projeto REMAMA. Foi um dia repleto de aprendizado, motivação e conexão. Juntos, estamos remando rumo à conscientização e prevenção do câncer de mama! 💗💪
+ #ProjetoRemama #SENAI #Remadoras #cancerdemama #Prevenção #USP #raiadausp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>25</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>October 16, 2020</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>"Maria Lúcia lembra que a medicina chinesa entende a origem das patologias (o câncer, por exemplo) como resultado da umidade do corpo, advinda do excesso do consumo de derivados do leite, farinha branca e açucares. 
+Sem excessos, hoje @marialuciaito está saudável e tem uma vida equilibrada e  rema no barco dragão rosa.
+#prevencaodocancerdemama
+#eprafrentequeserema #havidaaposocancer @institutodocancersp
+@cepeuspoficial
+@EEFEUSP
+@Rede lucy
+@aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>79</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>March 30, 2024</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>"Páscoa é renascimento, é renovação!
+#hávidaapósocâncer 
+#cancerdemama 
+#cancerdemamatemcura 
+#linfedema 
+#exercícioéremédio 
+#exerciseismedicine 
+#remama
+#remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>39</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>November 3, 2022</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>"O autocuidado é mais que essencial.
+Embarque nessa!🚣🏻‍♀️💕💕💕
+#outubrorosa 
+#havidaaposocancer 
+#cancerdemama 
+#eprafrentequeserema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>38</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>February 4, 2022</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>"#direitosdopacientecomcancer
+#Porcuidadosmaisjustos
+#cuidadosparatodos
+#closethecaregap
+#cancerdemama
+#diamundialdecombateaocancer
+#worldcancerday
+#wcd
+http://icesp.org.br/espaco-do-paciente/direitos-sociais-do-paciente-com-cancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>40</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>October 10, 2020</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>"A remadora Ana, 51 anos,  fez quimioterapia quando teve câncer de mama e no final até achou a careca dela linda.
+ Para você, a mensagem desta amiga do peito no especial Outubro Rosa.
+***Gravação realizada antes da pandemia***
+#outubrorosa
+#OutubroRosa
+#prevencaodocancerdemama 
+#havidaaposocancer 
+#remama 
+#remamadragaorosa
+@institutodocancersp
+@cepeuspoficial
+@eefeusp
+@redelucymontoro @aedrehc
+@hospitalhcfmusp 
+@fisiatriasp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>34</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>April 17, 2022</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>"Feliz Páscoa! ✝️❤️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>58</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>November 1, 2023</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>"Nossa Solange, recém chegada, deixando sua mensagem, neste mês especial!
+#Repost @institutodocancersp 
+——
+Chegamos no fim da campanha #OutubroRosaNoIcesp! 🎀
+E para fechar com chave de ouro, vocês poderão conferir o último episódio da série “Renascer Rosa: histórias de amor, esperança e coragem”. 🥰
+“Além do espelho” conta o relato de Solange da Rocha Coelho, que descobriu o câncer em 1987 e, no momento, faz acompanhamento no Icesp.
+Sua vida mudou quando entrou no Remama, programa que utiliza o remo como ferramenta para auxiliar na reabilitação de pacientes do Icesp com câncer de mama. Hoje em dia, ela tem um novo olhar em relação ao exercício físico e ama remar. 🚣🏻‍♀️ 
+Esperamos que tenham gostado de conhecer histórias de pacientes tão incríveis! 🩷 Agora, confira o relato da Solange! 
+🎥: @mazzofotografia"</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>238</v>
+      </c>
+      <c r="C145" t="n">
+        <v>19</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>August 19, 2023</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Laura Olivera Sala no Instagram: "Dragon Boat Day no @Bandnews mais uma atividade do @ibrachinaoficial e o @cbcspoficial"</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>49</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>December 23, 2021</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>"O Programa Remama, parceria do Instituto do Câncer do Estado de SP, Rede Lucy Montoro, CEPEUSP e EEFEUSP, agora também é RemamaOn! #icesp #institutodocancersp #redelucy #cepeusp #eefeusp #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>34</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>November 1, 2023</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>"#Repost @patriciachakur 
+——
+Posted @withregram • @lafise.ufmg Neste mês especial, o Laboratório de Fisiologia do Exercício (LAFISE) da Universidade Federal de Minas Gerais (UFMG) se une à campanha do Outubro Rosa para conscientizar sobre a importância da prevenção, detecção precoce e tratamento do câncer de mama. 
+Esforçamo-nos para entender o funcionamento complexo do corpo humano em nosso laboratório e também reconhecemos a importância de promover a conscientização sobre a saúde das mulheres. O câncer de mama afeta milhares de vidas a cada ano, e a prevenção e o tratamento são fundamentais para um melhor cenário. 
+O autoexame e a mamografia são estratégias essenciais na luta contra o câncer de mama.
+Já o treinamento físico, meticulosamente integrado ao tratamento, estimula as células do sistema imune que atuam como guardiões incansáveis, evitando a proliferação das células cancerígenas ou eliminando-as. Um trabalho publicado por Koivula e colaboradores (2023) demonstrou que uma sessão de cicloergômetro de apenas 10 minutos de duração e intensidade leve a moderada foi suficiente para aumentar leucócitos e outras células do sistema imune imediatamente após o exercício em mulheres recentemente diagnosticadas com câncer de mama.Esses efeitos seriam extremamente importantes se considerarmos a continuidade e regularidade de um programa de treinamento físico.
+O Programa ReMama @remamadragaorosa , respaldado por estudos pioneiros da Universidade de São Paulo (@usp.oficial ) e por trabalhos de referência da fisiologista @patriciachakur, reforça a importância do exercício físico como um poderoso aliado na luta contra o câncer de mama. O exercício físico não somente fortalece o corpo e ajuda a combater as células tumorais, mas também aumenta a autoestima e o bem estar.
+Juntas, podemos fortalecer nossos corações e nossa esperança. 
+#OutubroRosa #CancerDeMama #FisiologiaDoExercício #LAFISE #Prevenção #LAFISE_UFMG #ufmg #eeffto #ppgceufmg #fisiologiadoexercicio #fisiologiaesportiva #fisiologiadoesforço #fisiologia #fisiologiahumana #educacaofisica"</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>107</v>
+      </c>
+      <c r="C148" t="n">
+        <v>20</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>August 12, 2023</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>"Lindo momento de sintonia desta manhã feliz:
+Numa batida, 
+um ritmo, 
+TRÊS barcos
+e um coração❤️
+Celebrando a vida, juntas contra o câncer de mama, no @ibrachina
+🎥@vivi.attis
+Good vibes!
+@canomama_time
+@dragonumaumabrasil
+@ninarosadragonboat
+@remamadragaorosa
+🥁
+🚣🏻‍♀️
+🩷
+🥁
+🚣🏻‍♀️
+🩷
+#havidaaposocancer 
+#eprafrentequeserema 
+#cancerdemama 
+#cancerdemamatemcura 
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>26</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>February 19, 2022</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>"Repost from @mapletreebrasil .
+.
+.
+.
+.
+Simone Lima, atleta de basquete, envia sua mensagem como embaixadora da campanha “Exercício é remédio para o câncer”! 
+Ainda em tratamento oncológico, ela conta sua experiência e como o exercício tem auxiliado. 
+Agradecemos por compartilhar com a gente @silima14 ! 
+Realização: @mapletreebrasil @prehabrazil @gbecam_
+Apoio institucional: 
+@academia_ineex
+@correndo_contra_o_cancer
+@cref6_mg
+@fefisosorocaba
+@femama.brasil
+@gbotmed
+@gbcpoficial
+@gbtumoresginecologicos
+@infomama.com.br
+@lacogcancerresearch
+@movimentotjcc
+@mulheresnaoncologia
+@oncoguia
+@pensepinkbr
+@projetocamaleao
+@remamadragaorosa
+@remamadragaorosa
+@run_up
+@sbafs_
+@sbco_oficial
+@sbmastologia
+@sbmastologiasp
+@studiojaderbritobikefit
+@thummi.global
+@vencerocancer
+@viviconecta"</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>113</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>August 12, 2023</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>"🎶Isso aqui, ôh, ôh ...
+É um pouquinho de Remama iaiá...🎶
+Bom demais este convívio!
+#havidaaposocancer
+#eprafrentequeserema
+#cancerdemama 
+#cancerdemamatemcura 
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>46</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>October 12, 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>"Alegria em receber vocês!
+Márcia e Tchê Rosa 🌹🌹🌹"</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>March 6, 2021</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>"Prof. Christian Klausener - @cepeuspoficial 
+@chklausener"</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>50</v>
+      </c>
+      <c r="C153" t="n">
+        <v>10</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>April 17, 2024</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>"Programa maravilhoso que nos uniu e preservou durante o difícil período da pandemia.
+Vida longa ao ONCOFITT 🎉 🎉 🎉 💞 💕 🚣🏻‍♀️"</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>50</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>October 19, 2020</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>"Nossas queridas remadoras Luzia @luzroberto e Juana @juanamaria459 mostrando nosso Programa Remama, que tem trazido horizontes antes impensáveis para estas guerreiras extraordinárias! 
+🚣‍♀️🌸🚣‍♀️🌸🚣‍♀️🌸🚣‍♀️🌸🚣‍♀️
+#Repost @governosp 
+🎀💪 Você sabia que as aulas de remo ajudam na #reabilitação de pacientes com #câncerdemama?
+🎀💪 Pacientes utilizam a raia da USP, mas durante a pandemia atividades foram feitas online. 
+Veja!
+#outubrorosa
+#OutubroRosa
+#prevencaodocancerdemama 
+#havidaaposocancer 
+#remama 
+#remamadragaorosa
+@institutodocancersp
+@cepeuspoficial
+@EEFEUSP
+@redelucymontoro
+@aedrehc
+@saude_sp
+@governosp"</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>47</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>October 15, 2023</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>"Aos nossos mestres, com muito carinho!
+📷@ro_sangelamrr"</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>"Olimpíadas Remama - Semana 4 "Cuidando da Saúde Mental"
+🧘‍♀️🌺🎮🌺🤹‍♀️🤸‍♀️💃🏃‍♀️
+#remama 
+#Remamaon 
+#remamaonline 
+#exercicioeremedio 
+#havidaaposocancer 
+#selodireitoshumanosediversidade
+#mulheres
+#mulheresqueremam
+#cancerdemama
+#linfedema 
+#donmckenzie 
+#remadorasrosas
+#remadorasrosasdobrasil 
+#ibcpc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>53</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>April 14, 2024</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>"Como parte da programação da Semana Saúde em Movimento, promovida pelo CEPEUSP, hoje parte de nossa equipe marcou presença na II Caminhada Direito à Saúde organizada pelo @cepeuspoficial, PRip - Pró Reitoria de Inclusão e Pertencimento e Prefeitura USP do Quadrilátero da Saúde/Direito.
+Parabéns meninas!😍
+Movimentar SEMPREEE🎉🎉🎉
+Em alusão ao incrível Martin Luther King:
+"Se não puder voar, corra. Se não puder correr, ande. Se não puder andar, rasteje, mas continue em frente de qualquer jeito."
+Martin Luther King Jr."</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>86</v>
+      </c>
+      <c r="C158" t="n">
+        <v>23</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>March 8, 2024</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>"Dia Internacional da Mulher
+#diainternacionaldamulher 
+#cancerdemama
+#cancerdemamatemcura 
+#linfedema 
+#remama
+#remamadragaorosa"</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>72</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>September 17, 2019</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>"''Sincronia e sintonia'' 🚣‍♀️🌺🚣‍♀️🌺🚣‍♀️🌺🚣‍♀️🌺🚣‍♀️ #eprafrentequeserema #remamadragaorosa 
+#remadorasrosasdoremama #remadorasrosasdesp  #remadorasrosasdobrasil #icesp #cepeusp #eefeusp #redelucy #aedrehc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>59</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>October 7, 2023</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>"Técnica demonstrativa de salvamento.
+.
+@cepeuspoficial 
+@eefeusp 
+@chklausener 
+@josecarlossimonfarah"</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>94</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>October 18, 2023</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>"Nosso agradecimento à nossa inspiradora Mari🩷🚣🏻 e à Mari da @equipedragonboatflordelotus pelo registro da história da nossa linda Colcha de Retalhos 
+🧵🪡🧵🪡🧵🪡🧵🪡🧵🪡🧵🪡🧵🪡🧵🪡
+🚣🏻‍♀️🩷🚣🏻‍♀️🩷🚣🏻‍♀️🩷🚣🏻‍♀️🩷🚣🏻‍♀️🩷🚣🏻‍♀️🩷🚣🏻‍♀️🩷🚣🏻‍♀️🩷
+#Repost @mari.stoi 
+——
+Elas são inspiradoras 💕
+.
+.
+.
+.
+.
+.
+@itaipubinacional @fisioterapiauniamerica @uniamerica.br @gutomazine @projetomeninosdolago @smelfozoficial"</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>37</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>September 20, 2023</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>"O Bruno está vindo prestigiar, e você?
+🤩
+🚣🏻‍♀️
+🤩
+🚣🏻‍♀️
+🤩
+🚣🏻‍♀️
+🤩
+Rua Abílio Soares, 607 - próximo a Estação do Metrô Paraíso - São Paulo"</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>139</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>October 8, 2023</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>"As feras dando uma pitada de emoção no Festival!
+@fabiopaivacanoagem 
+@serginhoprieto 
+@ricardo.faro.899 e @_selva_aventura 
+Como é bom contar com vocês!"</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>34</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>December 31, 2018</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>"Nossa gratidão por 2018, venha 2019!!!
+🤗🤗🤗🎉🎉🎉🎉 #aedrehc
+#altashoras
+#bemestar
+#cepeusp 
+#dragonboatcolombia 
+#dragonumaumabrasil 
+#ester2018
+#equipeimua
+#faculdadesantamarcelina
+#festivalpaulistaderemadorasrosas
+#florencebcs2018
+#espacoinnovate
+#institutodocancersp 
+#kaora2018
+#raiaolimpica
+#redelucy 
+#roama
+#timegirassol
+#remadorasrosasdesp  #remadorasrosasdobrasil"</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>October 19, 2021</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>"Prestes à retomar nossas atividades, neste ano tão complicado, compartilhamos uma linda lembrança, nesta data tão significativa que é o Dia Internacional da Conscientização do câncer de mama:
+O 1° Festival Paulista de Remadoras Rosas e 3a Edição do Kaora Festival aconteceu em 19 de Outubro de 2018.
+Foram dias maravilhosos de aprendizagem e amizades, no Yacht Club. 
+A vida é feita de caminhos inesperados e os nossos foram apresentados à prática do esporte, com uma melhoria significativa da qualidade e manutenção da saúde! 
+Muita vida após o câncer! 
+Você já fez sua mamografia anual?
+Não se perca, se ame! 
+Nossa gratidão aos promotores de vida! 
+#icesp #cepeusp #eefeusp #redelucy #aedrehc #spcd #governodoestadosp #selvaaventura #canoabrasil #abracha #cti #ibcpc #dragonboatbrasil @fabiopaivacanoagem @ricardo.faro.889 #remama #cmoranbrito #linamara #patriciachakur #farah #christian #marcosito #rapha #donmckenzie #cleusaalonso #remadorasrosasdobrasil #remamadragaorosa #canomama #dragonumauma #neomama
+#eprafrentequeserema #havidaaposocancer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>46</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>November 8, 2021</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>"Remama de volta à Raia: presente de Outubro Rosa, por @patriciachakur"</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>52</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>October 7, 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>"Técnica 1 e 2 ✅
+.
+@cepeuspoficial 
+@chklausener 
+@josecarlossimonfarah"</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>69</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>January 18, 2019</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>"Férias?! A Equipe Remama Dragão Rosa chega na Raia Olímpica da USP para mais um treino.
+#programaremama #dragonboatbrasil #remama #remadorasrosasdoremama #remamadragaorosa #remadorasrosasdesp #remadorasrosasdobrasil  #saudesp #governodesp #icesp #cepeusp #eefeusp #redelucy #aedrehc #esporteevida #linfedema #prevencaodelinfedema #governodesp  #breastsurvivor #saopaulo #brasil #ibcpc"</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>38</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>February 27, 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>"RemamaOnline hoje está de parabéns!🎂🎂🎂
+Projeto pioneiro em acompanhamento online para mulheres sobreviventes de câncer de mama. 
+Teve início na pandemia, para garantir qualidade de vida, saúde e bem estar e hoje completa 200 aulas ininterruptas🎉🎉🎉
+Obrigada aos nossos professores, pesquisadores dedicados e grandes incentivadores ❤️❤️❤️💪🏻💪🏻💪🏻"</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>18</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>October 13, 2020</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>"Em 2017, Lúcia Torezan descobriu que tinha um nódulo na mama esquerda. Se tratou e hoje vive normalmente. Uma de suas alegrias é fazer parte de um grupo de mulheres que remam em um barco dragão boat. Conheça sua história."</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>102</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>August 29, 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>"Nossa querida Professora Patricia é uma grande inspiração, nas salas de aula e nas raias!
+#PrêmioInspiradoras2023
+Link para votação em nossa Bio ❤️🚣🏻‍♀️
+#repost de @institutoavon
+🚣🏻‍♀️🦋❤️🚣🏻‍♀️🦋❤️🚣🏻‍♀️🦋❤️🚣🏻‍♀️🦋❤️🚣🏻‍♀️🦋❤️🚣🏻‍♀️
+#PrêmioInspiradoras, busca dar visibilidade para mulheres que se destacam na luta para transformar a vida das brasileiras. As finalistas do Prêmio Inspiradoras 2023 na categoria 'Atenção ao Câncer de Mama' atuam nas áreas biomédicas, exatas ou humanas para modificar esse quadro. Elas trabalham com tecnologias e metodologias sociais de atenção, atendimento e acolhimento relacionadas ao diagnóstico ou tratamento da doença.
+👉 Conheça as indicadas nessa categoria!
+➡️ Acesse uol.com.br/universa e vote em suas favoritas. E se estiver difícil de se decidir, não tem problema: dá pra votar quantas vezes desejar!
+#UOL #UniversaUOL #PrêmioInspiradoras2023 #Inspiradoras2023 #mulheresinspiradoras #causas #avon #InstitutoAvon #premiação"</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>42</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>March 31, 2022</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>"Com a palavra, Sueli Raio de Sol...
+🚣🏻‍♀️🌸🚣🏻‍♀️☀️🚣🏻‍♀️🌷🚣🏻‍♀️☀️🚣🏻‍♀️🌹🚣🏻‍♀️💕
+#eprafrentequeserema
+#havidaaposocancer
+#remama
+#remamadragaorosa
+#remamaon
+#cancerdemama 
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>81</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>August 18, 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>"🎶Don't tell me that I won't
+I will
+Don't tell me that I'm not
+I am
+Don't tell me that my master plan
+Ain't coming through🎶
+Há vida após o câncer!
+#havidaaposocancer 
+#eprafrentequeserema 
+#cancerdemama 
+#cancerdemamatemcura 
+#linfedema"</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>21</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>"Semana 2 - Autocuidado
+ 🧖‍♀️🌺💆‍♀️🌺🧘‍♀️
+#remama 
+#Remamaon 
+#remamaonline 
+#exercicioeremedio 
+#havidaaposocancer 
+#selodireitoshumanosediversidade
+#mulheres
+#mulheresqueremam
+#cancerdemama
+#linfedema 
+#donmckenzie 
+#remadorasrosas
+#remadorasrosasdobrasil 
+#ibcpc"</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
